--- a/participants/participant_33/participant_33_task_orders.xlsx
+++ b/participants/participant_33/participant_33_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1649873103658731" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731062741034" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731062751014" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731063231065" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731063861387" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912376906269" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912415793993" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912415814059" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912416434052" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291241719396" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731036187.csv</t>
+          <t>go_stims-16502912376596303.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731036417367.csv</t>
+          <t>GNG_stims-16502912376736598.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731036437013.csv</t>
+          <t>go_stims-16502912376756253.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731036577375.csv</t>
+          <t>GNG_stims-16502912376906269.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498731040420504.csv</t>
+          <t>TB-16502912413813982.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1649873104520051.csv</t>
+          <t>OB-16502912396530566.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_9-16498731038810148.csv</t>
+          <t>ZB-match_5-16502912379470541.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1649873106251132.csv</t>
+          <t>TB-16502912410923955.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1649873106016138.csv</t>
+          <t>ZB-match_6-16502912379160933.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_4-1649873103856054.csv</t>
+          <t>TB-1650291241559399.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-16498731037527325.csv</t>
+          <t>OB-16502912380400836.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1649873105056054.csv</t>
+          <t>ZB-match_6-16502912378840551.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16498731041580553.csv</t>
+          <t>OB-16502912388150563.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498731062901015.csv</t>
+          <t>MM_stims-16502912415953991.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873106277101.csv</t>
+          <t>ZM_stims-16502912415843973.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731063061316.csv</t>
+          <t>MM_stims-1650291241627394.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731062911015.csv</t>
+          <t>ZM_stims-16502912415964005.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731063221326.csv</t>
+          <t>MM_stims-16502912416423995.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731063071008.csv</t>
+          <t>ZM_stims-16502912416283984.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731063541327.csv</t>
+          <t>vSAT_stims-1650291241703395.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731063381379.csv</t>
+          <t>SAT_stims-16502912416483989.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731063701375.csv</t>
+          <t>vSAT_stims-16502912416893973.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731063261025.csv</t>
+          <t>SAT_stims-16502912416733975.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_33/participant_33_task_orders.xlsx
+++ b/participants/participant_33/participant_33_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912376906269" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912415793993" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912415814059" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912416434052" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291241719396" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778589745333" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778606946154" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778606955323" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778607435274" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778608065317" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912376596303.csv</t>
+          <t>go_stims-16504778589325314.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912376736598.csv</t>
+          <t>GNG_stims-1650477858958532.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912376756253.csv</t>
+          <t>go_stims-16504778589595306.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912376906269.csv</t>
+          <t>GNG_stims-16504778589735322.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16502912413813982.csv</t>
+          <t>ZB-match_2-16504778593735297.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16502912396530566.csv</t>
+          <t>ZB-match_1-165047785926653.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_5-16502912379470541.csv</t>
+          <t>TB-16504778605355613.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502912410923955.csv</t>
+          <t>OB-16504778600185273.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502912379160933.csv</t>
+          <t>TB-16504778602245622.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650291241559399.csv</t>
+          <t>OB-16504778597655625.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502912380400836.csv</t>
+          <t>ZB-match_1-16504778589925287.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502912378840551.csv</t>
+          <t>OB-16504778599055638.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16502912388150563.csv</t>
+          <t>TB-16504778606805594.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912415953991.csv</t>
+          <t>MM_stims-16504778607105646.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912415843973.csv</t>
+          <t>ZM_stims-16504778606975267.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291241627394.csv</t>
+          <t>MM_stims-16504778607265291.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912415964005.csv</t>
+          <t>ZM_stims-16504778607105646.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912416423995.csv</t>
+          <t>MM_stims-16504778607425652.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912416283984.csv</t>
+          <t>ZM_stims-16504778607265291.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291241703395.csv</t>
+          <t>vSAT_stims-16504778607745283.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912416483989.csv</t>
+          <t>SAT_stims-16504778607465298.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912416893973.csv</t>
+          <t>SAT_stims-16504778607585652.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912416733975.csv</t>
+          <t>vSAT_stims-165047786079053.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_33/participant_33_task_orders.xlsx
+++ b/participants/participant_33/participant_33_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778589745333" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778606946154" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778606955323" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778607435274" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778608065317" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650996150159079" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961533910403" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961533910403" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961534390776" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961535030794" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778589325314.csv</t>
+          <t>go_stims-16509961501270394.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477858958532.csv</t>
+          <t>GNG_stims-16509961501430407.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778589595306.csv</t>
+          <t>go_stims-16509961501430407.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778589735322.csv</t>
+          <t>GNG_stims-1650996150159079.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-16504778593735297.csv</t>
+          <t>OB-16509961504310482.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-165047785926653.csv</t>
+          <t>ZB-match_1-1650996150311078.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504778605355613.csv</t>
+          <t>OB-16509961506550412.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778600185273.csv</t>
+          <t>TB-1650996151663043.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504778602245622.csv</t>
+          <t>ZB-match_6-16509961501750405.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16504778597655625.csv</t>
+          <t>TB-16509961533590755.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778589925287.csv</t>
+          <t>TB-16509961520950756.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504778599055638.csv</t>
+          <t>OB-16509961503350809.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16504778606805594.csv</t>
+          <t>ZB-match_4-16509961501990833.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778607105646.csv</t>
+          <t>MM_stims-16509961534070473.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778606975267.csv</t>
+          <t>ZM_stims-16509961533910403.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778607265291.csv</t>
+          <t>MM_stims-16509961534230664.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778607105646.csv</t>
+          <t>ZM_stims-16509961534070473.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778607425652.csv</t>
+          <t>MM_stims-16509961534390776.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778607265291.csv</t>
+          <t>ZM_stims-16509961534230664.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778607745283.csv</t>
+          <t>SAT_stims-16509961534550803.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778607465298.csv</t>
+          <t>SAT_stims-16509961534390776.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778607585652.csv</t>
+          <t>vSAT_stims-16509961534870791.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-165047786079053.csv</t>
+          <t>vSAT_stims-16509961534710886.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_33/participant_33_task_orders.xlsx
+++ b/participants/participant_33/participant_33_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650996150159079" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961533910403" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961533910403" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961534390776" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961535030794" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168750210655" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687525401354" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687525410497" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687525857453" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687526593652" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961501270394.csv</t>
+          <t>go_stims-16511687501830645.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961501430407.csv</t>
+          <t>GNG_stims-16511687501952503.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961501430407.csv</t>
+          <t>go_stims-16511687501972446.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996150159079.csv</t>
+          <t>GNG_stims-16511687502096553.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509961504310482.csv</t>
+          <t>ZB-match_0-16511687506021879.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-1650996150311078.csv</t>
+          <t>OB-16511687515234997.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16509961506550412.csv</t>
+          <t>ZB-match_3-16511687503139899.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1650996151663043.csv</t>
+          <t>TB-16511687525263343.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_6-16509961501750405.csv</t>
+          <t>OB-16511687515929728.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509961533590755.csv</t>
+          <t>OB-16511687506836762.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16509961520950756.csv</t>
+          <t>TB-16511687519255512.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961503350809.csv</t>
+          <t>ZB-match_3-16511687502781775.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509961501990833.csv</t>
+          <t>TB-16511687520461123.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961534070473.csv</t>
+          <t>MM_stims-16511687525554018.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961533910403.csv</t>
+          <t>ZM_stims-1651168752543047.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961534230664.csv</t>
+          <t>MM_stims-16511687525703924.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961534070473.csv</t>
+          <t>ZM_stims-16511687525563948.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961534390776.csv</t>
+          <t>MM_stims-16511687525857453.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961534230664.csv</t>
+          <t>ZM_stims-16511687525713966.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961534550803.csv</t>
+          <t>SAT_stims-16511687526015859.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961534390776.csv</t>
+          <t>SAT_stims-16511687525906227.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961534870791.csv</t>
+          <t>vSAT_stims-1651168752644145.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961534710886.csv</t>
+          <t>vSAT_stims-165116875261691.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_33/participant_33_task_orders.xlsx
+++ b/participants/participant_33/participant_33_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168750210655" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687525401354" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687525410497" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687525857453" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687526593652" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555771186125" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651255579562095" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651255579562095" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555796083114" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555796801126" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687501830645.csv</t>
+          <t>go_stims-16512555770856018.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687501952503.csv</t>
+          <t>GNG_stims-1651255577099602.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687501972446.csv</t>
+          <t>go_stims-1651255577101604.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687502096553.csv</t>
+          <t>GNG_stims-16512555771156027.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511687506021879.csv</t>
+          <t>TB-16512555790847518.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16511687515234997.csv</t>
+          <t>ZB-match_1-16512555773371646.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_3-16511687503139899.csv</t>
+          <t>OB-16512555783602843.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511687525263343.csv</t>
+          <t>ZB-match_3-16512555771871672.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16511687515929728.csv</t>
+          <t>OB-16512555779491065.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16511687506836762.csv</t>
+          <t>OB-16512555781141076.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16511687519255512.csv</t>
+          <t>TB-16512555786291716.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_3-16511687502781775.csv</t>
+          <t>TB-16512555795464668.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16511687520461123.csv</t>
+          <t>ZB-match_0-16512555776561093.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687525554018.csv</t>
+          <t>MM_stims-16512555795781183.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168752543047.csv</t>
+          <t>ZM_stims-1651255579562095.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687525703924.csv</t>
+          <t>MM_stims-16512555795940323.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687525563948.csv</t>
+          <t>ZM_stims-16512555795791183.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687525857453.csv</t>
+          <t>MM_stims-16512555796083114.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687525713966.csv</t>
+          <t>ZM_stims-16512555795951068.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687526015859.csv</t>
+          <t>vSAT_stims-16512555796640954.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687525906227.csv</t>
+          <t>SAT_stims-1651255579636343.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168752644145.csv</t>
+          <t>vSAT_stims-16512555796524415.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-165116875261691.csv</t>
+          <t>SAT_stims-16512555796128814.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_33/participant_33_task_orders.xlsx
+++ b/participants/participant_33/participant_33_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555771186125" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651255579562095" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651255579562095" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555796083114" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555796801126" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515890102094724" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_TO-16515890102407246" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16515890102407246" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16515890102876" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NB_TO-16515890116039078" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555770856018.csv</t>
+          <t>vSAT_stims-16515890101782236.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255577099602.csv</t>
+          <t>SAT_stims-16515890101470032.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651255577101604.csv</t>
+          <t>SAT_stims-16515890101625996.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555771156027.csv</t>
+          <t>vSAT_stims-16515890101938486.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16512555790847518.csv</t>
+          <t>go_stims-16515890102094724.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512555773371646.csv</t>
+          <t>GNG_stims-16515890102251015.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512555783602843.csv</t>
+          <t>go_stims-16515890102251015.csv</t>
         </is>
       </c>
     </row>
@@ -546,57 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_3-16512555771871672.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>OB-16512555779491065.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>OB-16512555781141076.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TB-16512555786291716.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TB-16512555795464668.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ZB-match_0-16512555776561093.csv</t>
+          <t>GNG_stims-16515890102407246.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +592,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512555795781183.csv</t>
+          <t>MM_stims-1651589010256349.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651255579562095.csv</t>
+          <t>ZM_stims-16515890102407246.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512555795940323.csv</t>
+          <t>MM_stims-16515890102719734.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555795791183.csv</t>
+          <t>ZM_stims-1651589010256349.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16512555796083114.csv</t>
+          <t>MM_stims-16515890102876.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555795951068.csv</t>
+          <t>ZM_stims-16515890102719734.csv</t>
         </is>
       </c>
     </row>
@@ -743,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +714,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555796640954.csv</t>
+          <t>TB-16515890114923708.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +724,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255579636343.csv</t>
+          <t>OB-16515890107305393.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +734,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555796524415.csv</t>
+          <t>ZB-match_9-165158901029055.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +744,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555796128814.csv</t>
+          <t>OB-16515890109982982.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TB-1651589011588244.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZB-match_7-1651589010472.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TB-16515890115236182.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ZB-match_4-16515890104407508.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OB-16515890111723404.csv</t>
         </is>
       </c>
     </row>
